--- a/public/data/02.xlsx
+++ b/public/data/02.xlsx
@@ -34,12 +34,12 @@
     <t>사전 현장 체크</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 누수, 단열, 결로, 배관, 설비 체크
+    <t xml:space="preserve"> - 2번 엑셀입니다.
  - 거주자 퇴거 시 1차 공간 영상 촬영
  - 도면 체크</t>
   </si>
   <si>
-    <t>0, 11</t>
+    <t>1, 0</t>
   </si>
   <si>
     <t>행위 허가</t>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -441,6 +441,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -710,7 +713,7 @@
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -724,7 +727,7 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -738,12 +741,12 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -752,7 +755,7 @@
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -780,7 +783,7 @@
       <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -794,7 +797,7 @@
       <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -808,7 +811,7 @@
       <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -822,7 +825,7 @@
       <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -836,7 +839,7 @@
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -850,7 +853,7 @@
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -858,13 +861,13 @@
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -878,7 +881,7 @@
       <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -892,7 +895,7 @@
       <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -906,7 +909,7 @@
       <c r="C18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -920,7 +923,7 @@
       <c r="C19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -934,7 +937,7 @@
       <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -948,7 +951,7 @@
       <c r="C21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -962,7 +965,7 @@
       <c r="C22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -976,7 +979,7 @@
       <c r="C23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -990,7 +993,7 @@
       <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -998,13 +1001,13 @@
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1018,7 +1021,7 @@
       <c r="C26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1026,13 +1029,13 @@
       <c r="A27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1046,7 +1049,7 @@
       <c r="C28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1060,7 +1063,7 @@
       <c r="C29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>93</v>
       </c>
     </row>
